--- a/Locators.xlsx
+++ b/Locators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.gonzaleze\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\IdeaProjects\serenity-junit-tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10C143D0-EC8F-4EEB-8A8C-CD31943E90B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF087A64-B43D-4640-9B44-D9237AA2DBD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E3F8088-75F8-43B7-996A-E785F619DBB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3E3F8088-75F8-43B7-996A-E785F619DBB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -118,6 +118,69 @@
   </si>
   <si>
     <t>Random identifiers</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>driver.findElement(By.cssSelector("#filters"));</t>
+  </si>
+  <si>
+    <t>"#filters"</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>".quote"</t>
+  </si>
+  <si>
+    <t>driver.findElement(By.cssSelector(".quote));</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>"li"</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>"section[data-dojo-type='dijit/_WidgetBase']"</t>
+  </si>
+  <si>
+    <t>Css</t>
+  </si>
+  <si>
+    <t>Attribute that contains</t>
+  </si>
+  <si>
+    <t>"data-dojo-type*='WidgetBase'''</t>
+  </si>
+  <si>
+    <t>Combine</t>
+  </si>
+  <si>
+    <t>"li.completed"</t>
+  </si>
+  <si>
+    <t>"#todo-list &gt; li"</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>"#todo-list .destroy"</t>
+  </si>
+  <si>
+    <t>Underneath</t>
+  </si>
+  <si>
+    <t>second child</t>
+  </si>
+  <si>
+    <t>"#todo-list li:nth-child(2)"</t>
   </si>
 </sst>
 </file>
@@ -291,12 +354,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,6 +374,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,143 +695,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E695E9-65DF-4A5B-875F-0DCB66197C49}">
-  <dimension ref="B1:D15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="9" t="s">
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9" t="s">
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="7" t="s">
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="7" t="s">
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="7" t="s">
+      <c r="D10" s="7"/>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="7" t="s">
+      <c r="D11" s="7"/>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Locators.xlsx
+++ b/Locators.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\IdeaProjects\serenity-junit-tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF087A64-B43D-4640-9B44-D9237AA2DBD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E55E34E-710A-4332-B9A3-B58925EC072C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3E3F8088-75F8-43B7-996A-E785F619DBB7}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E3F8088-75F8-43B7-996A-E785F619DBB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CSS" sheetId="1" r:id="rId1"/>
+    <sheet name="Xpath" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="153">
   <si>
     <t>ID</t>
   </si>
@@ -147,15 +148,9 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>"section[data-dojo-type='dijit/_WidgetBase']"</t>
-  </si>
-  <si>
     <t>Css</t>
   </si>
   <si>
-    <t>Attribute that contains</t>
-  </si>
-  <si>
     <t>"data-dojo-type*='WidgetBase'''</t>
   </si>
   <si>
@@ -177,17 +172,335 @@
     <t>Underneath</t>
   </si>
   <si>
-    <t>second child</t>
-  </si>
-  <si>
     <t>"#todo-list li:nth-child(2)"</t>
+  </si>
+  <si>
+    <t>Second child</t>
+  </si>
+  <si>
+    <t>Concise and expressive</t>
+  </si>
+  <si>
+    <t>"Understands" HTML semantics</t>
+  </si>
+  <si>
+    <t>Can't traverse the DOM</t>
+  </si>
+  <si>
+    <t>Can't reason about element text contents</t>
+  </si>
+  <si>
+    <t>CSS Locator Strategies</t>
+  </si>
+  <si>
+    <t>Locating elements by tag, class or id</t>
+  </si>
+  <si>
+    <t>Locating elements by attribute value</t>
+  </si>
+  <si>
+    <t>Locating child elements</t>
+  </si>
+  <si>
+    <t>"section[data-dojo-type='dijit/_WidgetBase']" or "[data-dojo-type='dijit/_WidgetBase']"</t>
+  </si>
+  <si>
+    <t>button[name^=remove]</t>
+  </si>
+  <si>
+    <t>Attribute starts with</t>
+  </si>
+  <si>
+    <t>Attribute ends with</t>
+  </si>
+  <si>
+    <t>^=</t>
+  </si>
+  <si>
+    <t>$=</t>
+  </si>
+  <si>
+    <t>button[name$=sauce-labs-backpack]</t>
+  </si>
+  <si>
+    <t>Attribute contains text</t>
+  </si>
+  <si>
+    <t>More powerful than techniques such as id, name and link text</t>
+  </si>
+  <si>
+    <t>Extremly flexible</t>
+  </si>
+  <si>
+    <t>Required for some situations</t>
+  </si>
+  <si>
+    <t>Does not "understand" HTML</t>
+  </si>
+  <si>
+    <t>Can be fragile and hard to maintain if done poorly</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Types of Xpath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is not use </t>
+  </si>
+  <si>
+    <t>/html/body/ng-view/section/section/ul/li/div/label</t>
+  </si>
+  <si>
+    <t>//ul/li/div/label</t>
+  </si>
+  <si>
+    <t>//input[@id='new-todo']</t>
+  </si>
+  <si>
+    <t>//div[@class='cart_item']//div[@class='inventory_itam_name']</t>
+  </si>
+  <si>
+    <t>Estructuras similares</t>
+  </si>
+  <si>
+    <t>//div[@class='cart_item']//*[@class='inventory_itam_name']</t>
+  </si>
+  <si>
+    <t>No me interesa lo segundo desde que contenga wild cart</t>
+  </si>
+  <si>
+    <t>Some useful Xpath Predicates</t>
+  </si>
+  <si>
+    <t>//ul/li[1]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>The first &lt;li&gt; element in the &lt;ul&gt; list</t>
+  </si>
+  <si>
+    <t>//ul/li[last()]</t>
+  </si>
+  <si>
+    <t>The last &lt;li&gt; element in the &lt;ul&gt; list</t>
+  </si>
+  <si>
+    <t>//input[@placeholder]</t>
+  </si>
+  <si>
+    <t>All the &lt;input&gt; fields with a placeholder attribute</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Type Me']</t>
+  </si>
+  <si>
+    <t>&lt;input&gt; fields with a placeholder attribute with a given value</t>
+  </si>
+  <si>
+    <t>Xpath functions</t>
+  </si>
+  <si>
+    <t>Exact text value of an element</t>
+  </si>
+  <si>
+    <t>//button[text()='Submit']</t>
+  </si>
+  <si>
+    <t>Text representation of an element (including nested elements)</t>
+  </si>
+  <si>
+    <t>//button[.='Submit']</t>
+  </si>
+  <si>
+    <t>Contains text</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),"Submit"]</t>
+  </si>
+  <si>
+    <t>Starts With Text</t>
+  </si>
+  <si>
+    <t>//button[starts-with(text(),"Submit"]</t>
+  </si>
+  <si>
+    <t>Normalize space</t>
+  </si>
+  <si>
+    <t>//button[normalize-space(text())="Submit"]</t>
+  </si>
+  <si>
+    <t>Practical Xpath</t>
+  </si>
+  <si>
+    <t>Effective Xpath expressions are:</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Descriptive</t>
+  </si>
+  <si>
+    <t>Effective Xpath expressions often use attributes such as:</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Test-Specific data attributes</t>
+  </si>
+  <si>
+    <t>Css Classes</t>
+  </si>
+  <si>
+    <t>Practical Xpath: Locating elements with a given visible text</t>
+  </si>
+  <si>
+    <t>//div[@class='inventory_item_name'][text()='Sauce Labs Backpack']</t>
+  </si>
+  <si>
+    <t>//div[@class='inventory_item_name'][.='Sauce Labs Backpack']</t>
+  </si>
+  <si>
+    <t>//div[.='Sauce Labs Backpack']</t>
+  </si>
+  <si>
+    <t>//a[.='Sauce Labs Backpack']</t>
+  </si>
+  <si>
+    <t>Practical Xpath: Locating elements in an array</t>
+  </si>
+  <si>
+    <t>(//div[@class='inventory_item_name'])[2]</t>
+  </si>
+  <si>
+    <t>Practical Xpath: Navigation the DOM</t>
+  </si>
+  <si>
+    <t>//*[@class='inventory_item_name'][.=Sauce Labs Backpack']/../../*[@class='item_pricebar']/button</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>//span[@class='stop-name'][.='Waterloo']/parent::*</t>
+  </si>
+  <si>
+    <t>Ancestor</t>
+  </si>
+  <si>
+    <t>//span[@class='stop-name'][.='Waterloo']/ancestor::*[@class='tt-suggestions']</t>
+  </si>
+  <si>
+    <t>::following</t>
+  </si>
+  <si>
+    <t>Matches any element further on in the DOM</t>
+  </si>
+  <si>
+    <t>::following-sibling</t>
+  </si>
+  <si>
+    <t>Matches any element further on under the same parent</t>
+  </si>
+  <si>
+    <t>::preceding</t>
+  </si>
+  <si>
+    <t>Matches any previous element in the DOM</t>
+  </si>
+  <si>
+    <t>::preceding-sibling</t>
+  </si>
+  <si>
+    <t>Matches any previous element under the same parent</t>
+  </si>
+  <si>
+    <t>Wheb should I use Xpath</t>
+  </si>
+  <si>
+    <t>Locator strategy</t>
+  </si>
+  <si>
+    <t>When to use it</t>
+  </si>
+  <si>
+    <t>Serenity BDD example</t>
+  </si>
+  <si>
+    <t>Data Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever available </t>
+  </si>
+  <si>
+    <t>$("//*[@data-test-id='firstName']").type("Bill");</t>
+  </si>
+  <si>
+    <t>When the ID is readable and not too coupled to the implementation</t>
+  </si>
+  <si>
+    <t>$(By.id("firstName")).type("Bill")</t>
+  </si>
+  <si>
+    <t>$("#stop-points-search-suggestion-2").click();</t>
+  </si>
+  <si>
+    <t>Sometimes more readable than ID¿, but can be coupled to the HTML implementation</t>
+  </si>
+  <si>
+    <t>$(By.name("firsName")).type("Bill);</t>
+  </si>
+  <si>
+    <t>CSS Class</t>
+  </si>
+  <si>
+    <t>Only if the class is domainrelated and added for testability</t>
+  </si>
+  <si>
+    <t>$(".btn-large).click();</t>
+  </si>
+  <si>
+    <t>$(".close-dialog").click();</t>
+  </si>
+  <si>
+    <t>CSS Selector</t>
+  </si>
+  <si>
+    <t>When you can't locate an element using the previous strategies</t>
+  </si>
+  <si>
+    <t>$("#purchase-form .purchase-button").click();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ither cases, e.g. When you need to locate an element containing a text value, or with a relative position. </t>
+  </si>
+  <si>
+    <t>$("//button[normalize-space(.)='Buy Now']").click();</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,16 +508,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -347,11 +682,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -375,12 +835,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,6 +900,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44822</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7621D976-79F8-4C34-B41B-7902D8D3FAC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="800100" y="10296524"/>
+          <a:ext cx="3769097" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -695,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E695E9-65DF-4A5B-875F-0DCB66197C49}">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,8 +1276,9 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -718,12 +1289,12 @@
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
+      <c r="F2" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -732,48 +1303,50 @@
       <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -787,11 +1360,13 @@
       <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I6" t="s">
-        <v>37</v>
+      <c r="G6" s="33"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -804,15 +1379,17 @@
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
+      <c r="F7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -821,63 +1398,81 @@
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
+      <c r="F8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" t="s">
-        <v>43</v>
+      <c r="F9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>48</v>
+      <c r="F11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="F12" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -886,9 +1481,19 @@
       <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="F13" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="31" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
@@ -905,13 +1510,491 @@
       </c>
       <c r="D15" s="8"/>
     </row>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6928A0AB-3A8C-4953-9633-C8CD98276DEB}">
+  <dimension ref="B2:D83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Locators.xlsx
+++ b/Locators.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\IdeaProjects\serenity-junit-tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E55E34E-710A-4332-B9A3-B58925EC072C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4AB2F5-8E4F-46A1-94FB-BB7387ED2B5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E3F8088-75F8-43B7-996A-E785F619DBB7}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E3F8088-75F8-43B7-996A-E785F619DBB7}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="1" r:id="rId1"/>
     <sheet name="Xpath" sheetId="2" r:id="rId2"/>
+    <sheet name="Order from user's perspective" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -852,6 +853,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,21 +886,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,6 +948,72 @@
         <a:xfrm>
           <a:off x="800100" y="10296524"/>
           <a:ext cx="3769097" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>346262</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F4DD88-A33B-4C35-B041-4F6941F76FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="784412" y="212912"/>
+          <a:ext cx="11753850" cy="6581775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,7 +1361,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1306,7 +1373,7 @@
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="26" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -1317,7 +1384,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
         <v>26</v>
@@ -1325,7 +1392,7 @@
       <c r="F4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="27" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -1336,7 +1403,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
         <v>27</v>
@@ -1344,7 +1411,7 @@
       <c r="F5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>35</v>
@@ -1363,7 +1430,7 @@
       <c r="F6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="9"/>
       <c r="I6" s="13" t="s">
         <v>55</v>
@@ -1382,14 +1449,14 @@
       <c r="F7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="9"/>
       <c r="I7" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1401,14 +1468,14 @@
       <c r="F8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="9"/>
       <c r="I8" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1418,14 +1485,14 @@
       <c r="F9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="9"/>
       <c r="I9" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1433,14 +1500,14 @@
       <c r="F10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="9"/>
       <c r="I10" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1448,31 +1515,31 @@
       <c r="F11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="9"/>
       <c r="I11" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="27" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1481,19 +1548,19 @@
       <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="28" t="s">
         <v>60</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
@@ -1516,10 +1583,10 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="21" t="s">
         <v>15</v>
       </c>
@@ -1534,10 +1601,10 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="17" t="s">
         <v>50</v>
       </c>
@@ -1575,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6928A0AB-3A8C-4953-9633-C8CD98276DEB}">
   <dimension ref="B2:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
@@ -1939,7 +2006,7 @@
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1961,7 +2028,7 @@
       <c r="C80" t="s">
         <v>145</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="30" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1997,4 +2064,20 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AECADC2-36DC-440D-B55C-66956F8D8B7C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Locators.xlsx
+++ b/Locators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\IdeaProjects\serenity-junit-tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4AB2F5-8E4F-46A1-94FB-BB7387ED2B5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0271693A-FD64-4E5B-A0DE-180D8567D38B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E3F8088-75F8-43B7-996A-E785F619DBB7}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E3F8088-75F8-43B7-996A-E785F619DBB7}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -866,8 +866,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,6 +884,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1334,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E695E9-65DF-4A5B-875F-0DCB66197C49}">
   <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1363,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1384,7 +1386,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
         <v>26</v>
@@ -1403,7 +1405,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
         <v>27</v>
@@ -1456,7 +1458,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1475,7 +1477,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1494,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1507,7 +1509,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1522,7 +1524,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
@@ -1539,7 +1541,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1560,7 +1562,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
@@ -1583,10 +1585,10 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="21" t="s">
         <v>15</v>
       </c>
@@ -1601,10 +1603,10 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="17" t="s">
         <v>50</v>
       </c>
@@ -1642,79 +1644,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6928A0AB-3A8C-4953-9633-C8CD98276DEB}">
   <dimension ref="B2:D83"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="36"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="36" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1967,95 +1973,99 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="B76" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="B77" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="29" t="s">
+      <c r="B78" s="12"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="37" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="B79" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="B80" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
+      <c r="B81" s="12"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="B82" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="83" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="36" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2070,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AECADC2-36DC-440D-B55C-66956F8D8B7C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
